--- a/Wimoto Profiles and Characteristices v1.00.xlsx
+++ b/Wimoto Profiles and Characteristices v1.00.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="670" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="670" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Wimoto Capabilities" sheetId="6" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Wimoto Sentry Profile" sheetId="4" r:id="rId3"/>
     <sheet name="Wimoto Grow Profile" sheetId="3" r:id="rId4"/>
     <sheet name="Wimoto Thermo Profile" sheetId="1" r:id="rId5"/>
-    <sheet name="Wimoto Leak" sheetId="7" r:id="rId6"/>
+    <sheet name="Wimoto Leak (Water)" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="192">
   <si>
     <t>UUID</t>
   </si>
@@ -2360,6 +2360,21 @@
       </rPr>
       <t>- 9D78 - 43C2 - AB2E - 0E48CAC2DBDA</t>
     </r>
+  </si>
+  <si>
+    <t>Probe thermometer</t>
+  </si>
+  <si>
+    <t>Wimoto_Sentry</t>
+  </si>
+  <si>
+    <t>Wimoto_Grow</t>
+  </si>
+  <si>
+    <t>Wimoto_Thermo</t>
+  </si>
+  <si>
+    <t>Wimoto_Leak</t>
   </si>
 </sst>
 </file>
@@ -2560,7 +2575,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2636,36 +2651,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="8"/>
       </left>
       <right style="thin">
@@ -2675,21 +2660,6 @@
         <color indexed="8"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2783,21 +2753,65 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="253">
+  <cellStyleXfs count="255">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3051,8 +3065,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3070,24 +3086,17 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3124,15 +3133,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3147,14 +3147,32 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="253">
+  <cellStyles count="255">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3281,6 +3299,7 @@
     <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3407,6 +3426,7 @@
     <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3736,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3791,181 +3811,91 @@
       <c r="A4" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="18"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="46"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="18"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="18"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="15"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="22"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="50"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="30"/>
-    </row>
-    <row r="17" spans="1:6" ht="18">
-      <c r="A17" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="18"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="20"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="18"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="18"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="30"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3988,648 +3918,648 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44" style="32" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="32" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="32"/>
-    <col min="4" max="4" width="24" style="32" customWidth="1"/>
-    <col min="5" max="8" width="2.83203125" style="32" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="32"/>
+    <col min="1" max="1" width="44" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="25" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="25"/>
+    <col min="4" max="4" width="24" style="25" customWidth="1"/>
+    <col min="5" max="8" width="2.83203125" style="25" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="60">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="33" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
     </row>
     <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="34"/>
+      <c r="C6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="31" t="s">
+      <c r="D6" s="55"/>
+      <c r="E6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="41"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="34"/>
+      <c r="C7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="41"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="31" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="16">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
     </row>
     <row r="12" spans="1:8" ht="16">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
     </row>
     <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="34"/>
+      <c r="C13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="31" t="s">
+      <c r="D13" s="55"/>
+      <c r="E13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="34"/>
+      <c r="C14" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
     </row>
     <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="33" t="s">
         <v>76</v>
       </c>
-      <c r="B15" s="41"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="34"/>
+      <c r="C15" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
     </row>
     <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="41"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="34"/>
+      <c r="C16" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="41"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="31" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
     </row>
     <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="31" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="17">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="46" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
     </row>
     <row r="22" spans="1:9" ht="17">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
     </row>
     <row r="23" spans="1:9" ht="17">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:9" ht="17">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="31" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="16">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
     </row>
     <row r="26" spans="1:9" ht="16">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
     </row>
     <row r="27" spans="1:9" ht="16">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="32" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="33" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="32" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="32" t="s">
+      <c r="D29" s="55"/>
+      <c r="E29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
     </row>
     <row r="32" spans="1:9" ht="16">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="46" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="31" t="s">
+      <c r="D32" s="55"/>
+      <c r="E32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="24" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="16">
-      <c r="A33" s="43">
+      <c r="A33" s="36">
         <v>1805</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I33" s="32" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
     </row>
     <row r="36" spans="1:9" ht="16">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="46" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="34" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I36" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="46" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="34" t="s">
+      <c r="D37" s="55"/>
+      <c r="E37" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="46" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="34" t="s">
+      <c r="D38" s="55"/>
+      <c r="E38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="34"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="27"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="34"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="27"/>
     </row>
     <row r="41" spans="1:9" ht="16">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="46" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="34" t="s">
+      <c r="D41" s="55"/>
+      <c r="E41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I41" s="27" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
     </row>
     <row r="46" spans="1:9">
       <c r="A46"/>
@@ -4715,544 +4645,544 @@
   <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26:E28"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="8" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="32"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="19" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="33" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="32"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="33" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="46"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="32"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="32"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="46" t="s">
+      <c r="B12" s="35"/>
+      <c r="C12" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="32"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="32"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="40"/>
-      <c r="B15" s="42"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="16">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="32"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="16">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="B17" s="40"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="33"/>
+      <c r="C17" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="32" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="46" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="46"/>
-      <c r="E18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="32" t="s">
+      <c r="D18" s="55"/>
+      <c r="E18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="29"/>
+      <c r="G18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="32" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="33" t="s">
         <v>113</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="33" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1">
-      <c r="A23" s="43">
+      <c r="A23" s="36">
         <v>1805</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32" t="s">
+      <c r="D23" s="55"/>
+      <c r="E23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="39" t="s">
+      <c r="B25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="16">
-      <c r="A26" s="44" t="s">
+      <c r="A26" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="34" t="s">
+      <c r="D26" s="55"/>
+      <c r="E26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="16">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="34" t="s">
-        <v>92</v>
+      <c r="D27" s="55"/>
+      <c r="E27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="34" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="46"/>
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="32"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="40" t="s">
+      <c r="A30" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="46" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="34" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="25"/>
+      <c r="G31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H31" s="25"/>
+      <c r="I31" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5305,7 +5235,7 @@
   <dimension ref="A1:I41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36:E38"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5318,714 +5248,714 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="32"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9" ht="28" customHeight="1">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9" ht="16" customHeight="1">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="17">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="32"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="17">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="17">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="17">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="17">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="32"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="16">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>121</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="32"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="17">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="32"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="17">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="55" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="17">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="32"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="17">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="32"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="17">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="32"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="32"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="17">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="32"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="28"/>
+      <c r="G20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="17">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="46" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="32"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="17">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="32"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="17" customHeight="1">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="33" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="32"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="17">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="35"/>
-      <c r="G24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="32"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24" s="28"/>
+      <c r="G24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="16">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="32"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="16">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="32"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="16">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="33"/>
+      <c r="C27" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="32" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="16">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="33" t="s">
         <v>135</v>
       </c>
-      <c r="B28" s="40"/>
-      <c r="C28" s="46" t="s">
+      <c r="B28" s="33"/>
+      <c r="C28" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="46"/>
-      <c r="E28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="36"/>
-      <c r="G28" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="32" t="s">
+      <c r="D28" s="55"/>
+      <c r="E28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F28" s="29"/>
+      <c r="G28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="29"/>
+      <c r="I28" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16">
-      <c r="A29" s="40" t="s">
+      <c r="A29" s="33" t="s">
         <v>136</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="32" t="s">
+      <c r="D29" s="55"/>
+      <c r="E29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H29" s="29"/>
+      <c r="I29" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="46"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="17" customHeight="1">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="33" t="s">
         <v>137</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="32"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="16">
-      <c r="A32" s="40" t="s">
+      <c r="A32" s="33" t="s">
         <v>138</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="46" t="s">
+      <c r="B32" s="33"/>
+      <c r="C32" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="46"/>
-      <c r="E32" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F32" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="16">
-      <c r="A33" s="43">
+      <c r="A33" s="36">
         <v>1805</v>
       </c>
-      <c r="B33" s="40"/>
-      <c r="C33" s="46" t="s">
+      <c r="B33" s="33"/>
+      <c r="C33" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F33" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32" t="s">
+      <c r="D33" s="55"/>
+      <c r="E33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="46"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9" ht="17" customHeight="1">
-      <c r="A36" s="44" t="s">
+      <c r="A36" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="46" t="s">
+      <c r="B36" s="33"/>
+      <c r="C36" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="46"/>
-      <c r="E36" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G36" s="32"/>
-      <c r="H36" s="32"/>
-      <c r="I36" s="34" t="s">
+      <c r="D36" s="55"/>
+      <c r="E36" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G36" s="25"/>
+      <c r="H36" s="25"/>
+      <c r="I36" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="16">
-      <c r="A37" s="44" t="s">
+      <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="46" t="s">
+      <c r="B37" s="33"/>
+      <c r="C37" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G37" s="32"/>
-      <c r="H37" s="32"/>
-      <c r="I37" s="34" t="s">
-        <v>92</v>
+      <c r="D37" s="55"/>
+      <c r="E37" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G37" s="25"/>
+      <c r="H37" s="25"/>
+      <c r="I37" s="27" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="16">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="46" t="s">
+      <c r="B38" s="33"/>
+      <c r="C38" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G38" s="32"/>
-      <c r="H38" s="32"/>
-      <c r="I38" s="34" t="s">
+      <c r="D38" s="55"/>
+      <c r="E38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="46"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="32"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="32"/>
-      <c r="I39" s="32"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="25"/>
+      <c r="H39" s="25"/>
+      <c r="I39" s="25"/>
     </row>
     <row r="40" spans="1:9">
-      <c r="A40" s="40" t="s">
+      <c r="A40" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B40" s="39" t="s">
+      <c r="B40" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="46"/>
-      <c r="D40" s="46"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="32"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="25"/>
+      <c r="H40" s="25"/>
+      <c r="I40" s="25"/>
     </row>
     <row r="41" spans="1:9" ht="17" customHeight="1">
-      <c r="A41" s="44" t="s">
+      <c r="A41" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B41" s="39"/>
-      <c r="C41" s="46" t="s">
+      <c r="B41" s="32"/>
+      <c r="C41" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="32"/>
-      <c r="G41" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41" s="32"/>
-      <c r="I41" s="34" t="s">
+      <c r="D41" s="55"/>
+      <c r="E41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" s="25"/>
+      <c r="G41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="25"/>
+      <c r="I41" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6044,6 +5974,9 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
@@ -6059,9 +5992,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
@@ -6087,603 +6017,603 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:D32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="42.6640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="50"/>
-    <col min="4" max="4" width="36.83203125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="40"/>
+    <col min="4" max="4" width="36.83203125" style="40" customWidth="1"/>
     <col min="5" max="8" width="2.83203125" customWidth="1"/>
     <col min="9" max="9" width="104.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="32"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="33" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="33" t="s">
         <v>150</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="46"/>
-      <c r="E6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="32"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="40" t="s">
+      <c r="A7" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="40" t="s">
+      <c r="A9" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="35"/>
+      <c r="C9" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="35"/>
+      <c r="C10" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="32"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="46"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="32"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1">
-      <c r="A13" s="40" t="s">
+      <c r="A13" s="33" t="s">
         <v>156</v>
       </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="46" t="s">
+      <c r="B13" s="35"/>
+      <c r="C13" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I13" s="32"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="28"/>
+      <c r="G13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="25"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="33" t="s">
         <v>157</v>
       </c>
-      <c r="B14" s="42"/>
-      <c r="C14" s="46" t="s">
+      <c r="B14" s="35"/>
+      <c r="C14" s="55" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1">
-      <c r="A15" s="40" t="s">
+      <c r="A15" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="46" t="s">
+      <c r="B15" s="35"/>
+      <c r="C15" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="32"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="25"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="46" t="s">
+      <c r="B16" s="35"/>
+      <c r="C16" s="55" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="46"/>
-      <c r="E16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="32"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
-      <c r="A17" s="40" t="s">
+      <c r="A17" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="46" t="s">
+      <c r="B17" s="35"/>
+      <c r="C17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H17" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" s="32"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="28"/>
+      <c r="G17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="32"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1">
-      <c r="A19" s="40" t="s">
+      <c r="A19" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="B19" s="39" t="s">
+      <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="32"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="16">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="B20" s="40"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="33"/>
+      <c r="C20" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="46"/>
-      <c r="E20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="32" t="s">
+      <c r="D20" s="55"/>
+      <c r="E20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="16">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="B21" s="40"/>
-      <c r="C21" s="46" t="s">
+      <c r="B21" s="33"/>
+      <c r="C21" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="46"/>
-      <c r="E21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="32" t="s">
+      <c r="D21" s="55"/>
+      <c r="E21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="29"/>
+      <c r="G21" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="29"/>
+      <c r="I21" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="16">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="33" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="32" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="16" customHeight="1">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="46" t="s">
+      <c r="B25" s="33"/>
+      <c r="C25" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="46"/>
-      <c r="E25" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="16">
-      <c r="A26" s="43">
+      <c r="A26" s="36">
         <v>1805</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="46" t="s">
+      <c r="B26" s="33"/>
+      <c r="C26" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="46"/>
-      <c r="E26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32" t="s">
+      <c r="D26" s="55"/>
+      <c r="E26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="32"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="40" t="s">
+      <c r="A28" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="32"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="17" customHeight="1">
-      <c r="A29" s="44" t="s">
+      <c r="A29" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="40"/>
-      <c r="C29" s="46" t="s">
+      <c r="B29" s="33"/>
+      <c r="C29" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G29" s="32"/>
-      <c r="H29" s="32"/>
-      <c r="I29" s="34" t="s">
+      <c r="D29" s="55"/>
+      <c r="E29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G29" s="25"/>
+      <c r="H29" s="25"/>
+      <c r="I29" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="16">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="40"/>
-      <c r="C30" s="46" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="34" t="s">
-        <v>92</v>
+      <c r="D30" s="55"/>
+      <c r="E30" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="27" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="16">
-      <c r="A31" s="44" t="s">
+      <c r="A31" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B31" s="40"/>
-      <c r="C31" s="46" t="s">
+      <c r="B31" s="33"/>
+      <c r="C31" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="46"/>
-      <c r="E31" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G31" s="32"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="34" t="s">
+      <c r="D31" s="55"/>
+      <c r="E31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="46"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="32"/>
-      <c r="I32" s="32"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="32"/>
-      <c r="I33" s="32"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9" ht="16">
-      <c r="A34" s="44" t="s">
+      <c r="A34" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="46" t="s">
+      <c r="B34" s="32"/>
+      <c r="C34" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F34" s="32"/>
-      <c r="G34" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H34" s="32"/>
-      <c r="I34" s="34" t="s">
+      <c r="D34" s="55"/>
+      <c r="E34" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -6738,479 +6668,479 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="49.83203125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="50" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="50"/>
-    <col min="4" max="4" width="36.83203125" style="50" customWidth="1"/>
+    <col min="1" max="1" width="49.83203125" style="39" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="40" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="40"/>
+    <col min="4" max="4" width="36.83203125" style="40" customWidth="1"/>
     <col min="5" max="8" width="2.83203125" customWidth="1"/>
     <col min="9" max="9" width="104.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="60">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="45"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="F1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="G1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="33" t="s">
+      <c r="H1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="32"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="56" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="53"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="32"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="A7" s="51" t="s">
+      <c r="A7" s="41" t="s">
         <v>177</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="53" t="s">
+      <c r="B7" s="43"/>
+      <c r="C7" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="32"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="53" t="s">
+      <c r="B8" s="43"/>
+      <c r="C8" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F8" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="32"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="A9" s="51" t="s">
+      <c r="A9" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="53" t="s">
+      <c r="B9" s="43"/>
+      <c r="C9" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="32"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
-      <c r="A10" s="51" t="s">
+      <c r="A10" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="53" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="32"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
-      <c r="I11" s="32"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="25"/>
     </row>
     <row r="12" spans="1:9" ht="17" customHeight="1">
-      <c r="A12" s="51" t="s">
+      <c r="A12" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="32"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="16">
-      <c r="A13" s="51" t="s">
+      <c r="A13" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="53" t="s">
+      <c r="B13" s="41"/>
+      <c r="C13" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="32" t="s">
+      <c r="D13" s="57"/>
+      <c r="E13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="25" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="16">
-      <c r="A14" s="51" t="s">
+      <c r="A14" s="41" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="51"/>
-      <c r="C14" s="53" t="s">
+      <c r="B14" s="41"/>
+      <c r="C14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="53"/>
-      <c r="E14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="32" t="s">
+      <c r="D14" s="57"/>
+      <c r="E14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" s="29"/>
+      <c r="I14" s="25" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16">
-      <c r="A15" s="51" t="s">
+      <c r="A15" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="53" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="32" t="s">
+      <c r="D15" s="57"/>
+      <c r="E15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="25" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
     </row>
     <row r="17" spans="1:9" ht="16" customHeight="1">
-      <c r="A17" s="51" t="s">
+      <c r="A17" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="B18" s="51"/>
-      <c r="C18" s="53" t="s">
+      <c r="B18" s="41"/>
+      <c r="C18" s="57" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="53"/>
-      <c r="E18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="16">
-      <c r="A19" s="43">
+      <c r="A19" s="36">
         <v>1805</v>
       </c>
-      <c r="B19" s="40"/>
-      <c r="C19" s="46" t="s">
+      <c r="B19" s="33"/>
+      <c r="C19" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32" t="s">
+      <c r="D19" s="55"/>
+      <c r="E19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="25" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="39" t="s">
+      <c r="B21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1">
-      <c r="A22" s="44" t="s">
+      <c r="A22" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="40"/>
-      <c r="C22" s="46" t="s">
+      <c r="B22" s="33"/>
+      <c r="C22" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G22" s="32"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="34" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="27" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="16">
-      <c r="A23" s="44" t="s">
+      <c r="A23" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="40"/>
-      <c r="C23" s="46" t="s">
+      <c r="B23" s="33"/>
+      <c r="C23" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="46"/>
-      <c r="E23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="34" t="s">
-        <v>92</v>
+      <c r="D23" s="55"/>
+      <c r="E23" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="16">
-      <c r="A24" s="44" t="s">
+      <c r="A24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="40"/>
-      <c r="C24" s="46" t="s">
+      <c r="B24" s="33"/>
+      <c r="C24" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="46"/>
-      <c r="E24" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="34" t="s">
+      <c r="D24" s="55"/>
+      <c r="E24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="27" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="32"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="32"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="16">
-      <c r="A27" s="44" t="s">
+      <c r="A27" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B27" s="39"/>
-      <c r="C27" s="46" t="s">
+      <c r="B27" s="32"/>
+      <c r="C27" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F27" s="32"/>
-      <c r="G27" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="32"/>
-      <c r="I27" s="34" t="s">
+      <c r="D27" s="55"/>
+      <c r="E27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F27" s="25"/>
+      <c r="G27" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="27" t="s">
         <v>38</v>
       </c>
     </row>
@@ -7226,23 +7156,23 @@
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Wimoto Profiles and Characteristices v1.00.xlsx
+++ b/Wimoto Profiles and Characteristices v1.00.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="20460" tabRatio="670" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460" tabRatio="670" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Wimoto Capabilities" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="564" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="231">
   <si>
     <t>UUID</t>
   </si>
@@ -2375,13 +2375,130 @@
   </si>
   <si>
     <t>Wimoto_Leak</t>
+  </si>
+  <si>
+    <t>Current XYZ</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Size (Bytes)</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary </t>
+  </si>
+  <si>
+    <t>2comp</t>
+  </si>
+  <si>
+    <t>gVal</t>
+  </si>
+  <si>
+    <t>angleXY</t>
+  </si>
+  <si>
+    <t>angleZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaken </t>
+  </si>
+  <si>
+    <t>Accelerometer Data Decoder</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Broadcast data</t>
+  </si>
+  <si>
+    <t>Byte 0</t>
+  </si>
+  <si>
+    <t>Company identifier</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>8-bit</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Byte 1</t>
+  </si>
+  <si>
+    <t>Byte 2</t>
+  </si>
+  <si>
+    <t>Acceleromter X</t>
+  </si>
+  <si>
+    <t>6-bit</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Byte 3</t>
+  </si>
+  <si>
+    <t>Byte 4</t>
+  </si>
+  <si>
+    <t>Acceleromter Z</t>
+  </si>
+  <si>
+    <t>Acceleromter Y</t>
+  </si>
+  <si>
+    <t>Byte 5</t>
+  </si>
+  <si>
+    <t>PIR</t>
+  </si>
+  <si>
+    <t>1-bit</t>
+  </si>
+  <si>
+    <t>0 = no movement, 1 movement</t>
+  </si>
+  <si>
+    <t>Stays high for 2000ms</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Byte 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battery level </t>
+  </si>
+  <si>
+    <t>255=full</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2523,6 +2640,20 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2811,7 +2942,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="255">
+  <cellStyleXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3067,8 +3198,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3168,11 +3303,23 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="255">
+  <cellStyles count="259">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -3300,6 +3447,8 @@
     <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -3427,6 +3576,8 @@
     <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3759,7 +3910,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3910,10 +4061,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:J49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3921,698 +4072,720 @@
     <col min="1" max="1" width="44" style="25" customWidth="1"/>
     <col min="2" max="2" width="20.5" style="25" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="25"/>
-    <col min="4" max="4" width="24" style="25" customWidth="1"/>
-    <col min="5" max="8" width="2.83203125" style="25" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="25"/>
+    <col min="4" max="5" width="24" style="25" customWidth="1"/>
+    <col min="6" max="9" width="2.83203125" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="60">
+    <row r="1" spans="1:9" ht="60">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="56"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="33" t="s">
         <v>66</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="55"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="55"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-    </row>
-    <row r="6" spans="1:8" ht="17">
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="55"/>
+    </row>
+    <row r="6" spans="1:9" ht="17">
       <c r="A6" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B6" s="34"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
+      <c r="I6" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17">
       <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="34"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="55"/>
       <c r="F7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="1:8" ht="17">
+      <c r="I7" s="28"/>
+    </row>
+    <row r="8" spans="1:9" ht="17">
       <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="34"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D8" s="60"/>
+      <c r="E8" s="55"/>
       <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8" ht="17">
+      <c r="I8" s="28"/>
+    </row>
+    <row r="9" spans="1:9" ht="17">
       <c r="A9" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="34"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D9" s="60"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="28"/>
-    </row>
-    <row r="10" spans="1:8" ht="17">
+      <c r="I9" s="28"/>
+    </row>
+    <row r="10" spans="1:9" ht="17">
       <c r="A10" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="34"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F10" s="28"/>
-      <c r="G10" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D10" s="60"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="28"/>
       <c r="H10" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" ht="16">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="29"/>
+      <c r="I10" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16">
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-    </row>
-    <row r="12" spans="1:8" ht="16">
+      <c r="I11" s="29"/>
+    </row>
+    <row r="12" spans="1:9" ht="16">
       <c r="A12" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="29"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
-    </row>
-    <row r="13" spans="1:8" ht="17">
+      <c r="I12" s="29"/>
+    </row>
+    <row r="13" spans="1:9" ht="17">
       <c r="A13" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B13" s="34"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="28"/>
       <c r="H13" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="17">
+      <c r="I13" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17">
       <c r="A14" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B14" s="34"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D14" s="60"/>
+      <c r="E14" s="55"/>
       <c r="F14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="28"/>
+      <c r="G14" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H14" s="28"/>
-    </row>
-    <row r="15" spans="1:8" ht="17">
+      <c r="I14" s="28"/>
+    </row>
+    <row r="15" spans="1:9" ht="17">
       <c r="A15" s="33" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="34"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D15" s="60"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="28"/>
+      <c r="G15" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H15" s="28"/>
-    </row>
-    <row r="16" spans="1:8" ht="17">
+      <c r="I15" s="28"/>
+    </row>
+    <row r="16" spans="1:9" ht="17">
       <c r="A16" s="33" t="s">
         <v>77</v>
       </c>
       <c r="B16" s="34"/>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D16" s="60"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="28"/>
+      <c r="G16" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H16" s="28"/>
-    </row>
-    <row r="17" spans="1:9" ht="17">
+      <c r="I16" s="28"/>
+    </row>
+    <row r="17" spans="1:10" ht="17">
       <c r="A17" s="33" t="s">
         <v>78</v>
       </c>
       <c r="B17" s="34"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="28"/>
-      <c r="G17" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G17" s="28"/>
       <c r="H17" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="29"/>
+      <c r="I17" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16">
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
       <c r="H18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="16">
+      <c r="I18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="33" t="s">
         <v>79</v>
       </c>
       <c r="B19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="29"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
       <c r="H19" s="29"/>
-    </row>
-    <row r="20" spans="1:9" ht="17">
+      <c r="I19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" ht="17">
       <c r="A20" s="33" t="s">
         <v>80</v>
       </c>
       <c r="B20" s="33"/>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D20" s="60"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="28"/>
       <c r="H20" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" ht="17">
+      <c r="I20" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="17">
       <c r="A21" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B21" s="33"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G21" s="28"/>
+      <c r="G21" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H21" s="28"/>
-    </row>
-    <row r="22" spans="1:9" ht="17">
+      <c r="I21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="17">
       <c r="A22" s="33" t="s">
         <v>82</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="55"/>
       <c r="F22" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="28"/>
+      <c r="G22" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H22" s="28"/>
-    </row>
-    <row r="23" spans="1:9" ht="17">
+      <c r="I22" s="28"/>
+    </row>
+    <row r="23" spans="1:10" ht="17">
       <c r="A23" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B23" s="33"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D23" s="60"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="28"/>
+      <c r="G23" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H23" s="28"/>
-    </row>
-    <row r="24" spans="1:9" ht="17">
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:10" ht="17">
       <c r="A24" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F24" s="28"/>
-      <c r="G24" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D24" s="60"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="28"/>
       <c r="H24" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="16">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="29"/>
+      <c r="I24" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16">
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" ht="16">
+      <c r="I25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="29"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="55"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" ht="16">
+      <c r="I26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B27" s="33"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G27" s="29"/>
+      <c r="G27" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H27" s="29"/>
-      <c r="I27" s="25" t="s">
+      <c r="I27" s="29"/>
+      <c r="J27" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="25" t="s">
+      <c r="D28" s="60"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I28" s="29"/>
+      <c r="J28" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="16">
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="33"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G29" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H29" s="29"/>
-      <c r="I29" s="25" t="s">
+      <c r="H29" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I29" s="29"/>
+      <c r="J29" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-    </row>
-    <row r="31" spans="1:9">
+    <row r="30" spans="1:10">
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="55"/>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-    </row>
-    <row r="32" spans="1:9" ht="16">
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="55"/>
+    </row>
+    <row r="32" spans="1:10" ht="16">
       <c r="A32" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="60" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="55"/>
-      <c r="E32" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D32" s="60"/>
+      <c r="E32" s="55"/>
       <c r="F32" s="24" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="16">
+      <c r="G32" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="16">
       <c r="A33" s="36">
         <v>1805</v>
       </c>
       <c r="B33" s="33"/>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="55"/>
-      <c r="E33" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D33" s="60"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I33" s="25" t="s">
+      <c r="G33" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J33" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-    </row>
-    <row r="35" spans="1:9">
+    <row r="34" spans="1:10">
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="55"/>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-    </row>
-    <row r="36" spans="1:9" ht="16">
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="55"/>
+    </row>
+    <row r="36" spans="1:10" ht="16">
       <c r="A36" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="33"/>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I36" s="27" t="s">
+      <c r="D36" s="60"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J36" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16">
+    <row r="37" spans="1:10" ht="16">
       <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B37" s="33"/>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I37" s="27" t="s">
+      <c r="D37" s="60"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J37" s="27" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16">
+    <row r="38" spans="1:10" ht="16">
       <c r="A38" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="33"/>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="27" t="s">
+      <c r="D38" s="60"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J38" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="27"/>
-    </row>
-    <row r="40" spans="1:9">
+    <row r="39" spans="1:10">
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="27"/>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:9" ht="16">
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="27"/>
+    </row>
+    <row r="41" spans="1:10" ht="16">
       <c r="A41" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B41" s="32"/>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G41" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="I41" s="27" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="H41" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J41" s="27" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:10">
       <c r="A42" s="33"/>
       <c r="B42" s="33"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="55"/>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46"/>
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="E46"/>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47"/>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-    </row>
-    <row r="48" spans="1:9">
+      <c r="E47"/>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48"/>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48"/>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49"/>
       <c r="B49"/>
       <c r="C49"/>
       <c r="D49"/>
+      <c r="E49"/>
     </row>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="C36:D36"/>
@@ -4629,6 +4802,32 @@
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -4642,254 +4841,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="44.6640625" style="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="8" width="2.83203125" customWidth="1"/>
+    <col min="4" max="5" width="27" customWidth="1"/>
+    <col min="6" max="9" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="60">
+    <row r="1" spans="1:10" ht="60">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="54" t="s">
+        <v>194</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="25"/>
-    </row>
-    <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="J1" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="16" customHeight="1">
+      <c r="A2" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="25"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="56"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2" s="25"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="25"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
       <c r="H3" s="25"/>
       <c r="I3" s="25"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="25"/>
+      <c r="J3" s="25"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
       <c r="H4" s="25"/>
       <c r="I4" s="25"/>
-    </row>
-    <row r="5" spans="1:9" ht="19" customHeight="1">
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B5" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="25"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
       <c r="H5" s="25"/>
       <c r="I5" s="25"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
+      <c r="J5" s="25"/>
+    </row>
+    <row r="6" spans="1:10" ht="18" customHeight="1">
       <c r="A6" s="33" t="s">
         <v>100</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="C6" s="60" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="60"/>
+      <c r="E6" s="55">
+        <v>6</v>
+      </c>
+      <c r="F6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="28"/>
       <c r="H6" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I6" s="25"/>
-    </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
+      <c r="I6" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="25"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1">
       <c r="A7" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B7" s="35"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="24" t="s">
-        <v>65</v>
+      <c r="D7" s="60"/>
+      <c r="E7" s="55">
+        <v>1</v>
       </c>
       <c r="F7" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G7" s="28"/>
+      <c r="G7" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H7" s="28"/>
-      <c r="I7" s="25"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
+      <c r="I7" s="28"/>
+      <c r="J7" s="25"/>
+    </row>
+    <row r="8" spans="1:10" ht="18" customHeight="1">
       <c r="A8" s="33" t="s">
         <v>102</v>
       </c>
       <c r="B8" s="35"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="24" t="s">
-        <v>65</v>
+      <c r="D8" s="60"/>
+      <c r="E8" s="55">
+        <v>1</v>
       </c>
       <c r="F8" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G8" s="28"/>
+      <c r="G8" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" s="28"/>
-      <c r="I8" s="25"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
+      <c r="I8" s="28"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" ht="18" customHeight="1">
       <c r="A9" s="33" t="s">
         <v>103</v>
       </c>
       <c r="B9" s="35"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="55"/>
-      <c r="E9" s="24" t="s">
-        <v>65</v>
+      <c r="D9" s="60"/>
+      <c r="E9" s="55">
+        <v>1</v>
       </c>
       <c r="F9" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="28"/>
+      <c r="G9" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H9" s="28"/>
-      <c r="I9" s="25"/>
-    </row>
-    <row r="10" spans="1:9" ht="16">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="29"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="25"/>
+    </row>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
-      <c r="I10" s="25"/>
-    </row>
-    <row r="11" spans="1:9" ht="16">
+      <c r="I10" s="29"/>
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="33" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="29"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
-      <c r="I11" s="25"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="I11" s="29"/>
+      <c r="J11" s="25"/>
+    </row>
+    <row r="12" spans="1:10" ht="18" customHeight="1">
       <c r="A12" s="33" t="s">
         <v>106</v>
       </c>
       <c r="B12" s="35"/>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="28"/>
-      <c r="G12" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D12" s="60"/>
+      <c r="E12" s="55">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G12" s="28"/>
       <c r="H12" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="25"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
+      <c r="I12" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J12" s="25"/>
+    </row>
+    <row r="13" spans="1:10" ht="18" customHeight="1">
       <c r="A13" s="33" t="s">
         <v>107</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="24" t="s">
-        <v>65</v>
+      <c r="D13" s="60"/>
+      <c r="E13" s="55">
+        <v>1</v>
       </c>
       <c r="F13" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G13" s="28"/>
+      <c r="G13" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H13" s="28"/>
-      <c r="I13" s="25"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="I13" s="28"/>
+      <c r="J13" s="25"/>
+    </row>
+    <row r="14" spans="1:10" ht="18" customHeight="1">
       <c r="A14" s="33" t="s">
         <v>108</v>
       </c>
       <c r="B14" s="35"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="24" t="s">
-        <v>65</v>
+      <c r="D14" s="60"/>
+      <c r="E14" s="55">
+        <v>1</v>
       </c>
       <c r="F14" s="24" t="s">
         <v>65</v>
@@ -4900,316 +5128,1639 @@
       <c r="H14" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="I14" s="25"/>
-    </row>
-    <row r="15" spans="1:9" ht="17">
+      <c r="I14" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" s="25"/>
+    </row>
+    <row r="15" spans="1:10" ht="17">
       <c r="A15" s="33"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="24"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="55"/>
       <c r="F15" s="24"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="25"/>
-    </row>
-    <row r="16" spans="1:9" ht="16">
+      <c r="I15" s="28"/>
+      <c r="J15" s="25"/>
+    </row>
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="33" t="s">
         <v>109</v>
       </c>
       <c r="B16" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="29"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="55"/>
       <c r="F16" s="29"/>
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
-      <c r="I16" s="25"/>
-    </row>
-    <row r="17" spans="1:9" ht="16">
+      <c r="I16" s="29"/>
+      <c r="J16" s="25"/>
+    </row>
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="33" t="s">
         <v>110</v>
       </c>
       <c r="B17" s="33"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="24" t="s">
-        <v>65</v>
+      <c r="D17" s="60"/>
+      <c r="E17" s="55">
+        <v>1</v>
       </c>
       <c r="F17" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="29"/>
+      <c r="G17" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="25" t="s">
+      <c r="I17" s="29"/>
+      <c r="J17" s="25" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="16">
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="33" t="s">
         <v>111</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="25" t="s">
+      <c r="D18" s="60"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G18" s="29"/>
+      <c r="H18" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="25" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1">
+    <row r="19" spans="1:10" ht="18" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>112</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="24" t="s">
-        <v>65</v>
-      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="55"/>
       <c r="F19" s="24" t="s">
         <v>65</v>
       </c>
       <c r="G19" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="25" t="s">
+      <c r="H19" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="29"/>
+      <c r="J19" s="25" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="25"/>
+    <row r="20" spans="1:10" ht="18" customHeight="1">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="55"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
       <c r="I20" s="25"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1">
+      <c r="J20" s="25"/>
+    </row>
+    <row r="21" spans="1:10" ht="18" customHeight="1">
       <c r="A21" s="33" t="s">
         <v>113</v>
       </c>
       <c r="B21" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="25"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
       <c r="I21" s="25"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1">
+      <c r="J21" s="25"/>
+    </row>
+    <row r="22" spans="1:10" ht="18" customHeight="1">
       <c r="A22" s="33" t="s">
         <v>114</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="24" t="s">
-        <v>65</v>
+      <c r="D22" s="60"/>
+      <c r="E22" s="55">
+        <v>1</v>
       </c>
       <c r="F22" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="25"/>
+      <c r="G22" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H22" s="25"/>
       <c r="I22" s="25"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1">
+      <c r="J22" s="25"/>
+    </row>
+    <row r="23" spans="1:10" ht="18" customHeight="1">
       <c r="A23" s="36">
         <v>1805</v>
       </c>
       <c r="B23" s="33"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="55"/>
-      <c r="E23" s="24" t="s">
-        <v>65</v>
+      <c r="D23" s="60"/>
+      <c r="E23" s="55">
+        <v>7</v>
       </c>
       <c r="F23" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="G23" s="25"/>
+      <c r="G23" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H23" s="25"/>
-      <c r="I23" s="25" t="s">
+      <c r="I23" s="25"/>
+      <c r="J23" s="25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="25"/>
+    <row r="24" spans="1:10">
+      <c r="A24" s="60"/>
+      <c r="B24" s="60"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="55"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
       <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" s="25"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="33" t="s">
         <v>14</v>
       </c>
       <c r="B25" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
       <c r="I25" s="25"/>
-    </row>
-    <row r="26" spans="1:9" ht="16">
+      <c r="J25" s="25"/>
+    </row>
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="37" t="s">
         <v>16</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G26" s="25"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H26" s="25"/>
-      <c r="I26" s="27" t="s">
+      <c r="I26" s="25"/>
+      <c r="J26" s="27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="16">
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="37" t="s">
         <v>18</v>
       </c>
       <c r="B27" s="33"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="55"/>
-      <c r="E27" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G27" s="25"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F27" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H27" s="25"/>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="25"/>
+      <c r="J27" s="27" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="16">
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="37" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="25"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="55" t="s">
+        <v>203</v>
+      </c>
+      <c r="F28" s="24" t="s">
+        <v>65</v>
+      </c>
       <c r="H28" s="25"/>
-      <c r="I28" s="27" t="s">
+      <c r="I28" s="25"/>
+      <c r="J28" s="27" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25"/>
+    <row r="29" spans="1:10">
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="I29" s="25"/>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="J29" s="25"/>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="33" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
       <c r="I30" s="25"/>
-    </row>
-    <row r="31" spans="1:9" ht="16">
+      <c r="J30" s="25"/>
+    </row>
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B31" s="33"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D31" s="55"/>
-      <c r="E31" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F31" s="25"/>
-      <c r="G31" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="25"/>
-      <c r="I31" s="27" t="s">
+      <c r="D31" s="60"/>
+      <c r="E31" s="55">
+        <v>1</v>
+      </c>
+      <c r="F31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="25"/>
+      <c r="H31" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I31" s="25"/>
+      <c r="J31" s="27" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="16">
+      <c r="A34" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="J34" s="57" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="B35" t="s">
+        <v>206</v>
+      </c>
+      <c r="C35" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="58" t="s">
+        <v>211</v>
+      </c>
+      <c r="J35" t="s">
+        <v>195</v>
+      </c>
+      <c r="K35" t="s">
+        <v>196</v>
+      </c>
+      <c r="L35" t="s">
+        <v>197</v>
+      </c>
+      <c r="M35" t="s">
+        <v>198</v>
+      </c>
+      <c r="N35" t="s">
+        <v>199</v>
+      </c>
+      <c r="O35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="B36" t="s">
+        <v>206</v>
+      </c>
+      <c r="C36" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="58" t="s">
+        <v>210</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" t="s">
+        <v>215</v>
+      </c>
+      <c r="D37" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>4.7E-2</v>
+      </c>
+      <c r="N37">
+        <v>2.69</v>
+      </c>
+      <c r="O37">
+        <v>87.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>220</v>
+      </c>
+      <c r="C38" t="s">
+        <v>215</v>
+      </c>
+      <c r="D38" t="s">
+        <v>216</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+      <c r="K38">
+        <v>10</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>9.4E-2</v>
+      </c>
+      <c r="N38">
+        <v>5.38</v>
+      </c>
+      <c r="O38">
+        <v>84.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B39" t="s">
+        <v>219</v>
+      </c>
+      <c r="C39" t="s">
+        <v>215</v>
+      </c>
+      <c r="D39" t="s">
+        <v>216</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39">
+        <v>11</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="N39">
+        <v>8.08</v>
+      </c>
+      <c r="O39">
+        <v>81.92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B40" t="s">
+        <v>222</v>
+      </c>
+      <c r="C40" t="s">
+        <v>223</v>
+      </c>
+      <c r="D40" t="s">
+        <v>224</v>
+      </c>
+      <c r="E40" t="s">
+        <v>225</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>100</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>0.188</v>
+      </c>
+      <c r="N40">
+        <v>10.81</v>
+      </c>
+      <c r="O40">
+        <v>79.19</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="25" t="s">
+        <v>227</v>
+      </c>
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" t="s">
+        <v>230</v>
+      </c>
+      <c r="E41" t="s">
+        <v>229</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41">
+        <v>101</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="N41">
+        <v>13.55</v>
+      </c>
+      <c r="O41">
+        <v>76.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>110</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>0.28100000000000003</v>
+      </c>
+      <c r="N42">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="O42">
+        <v>73.67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43">
+        <v>111</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="N43">
+        <v>19.16</v>
+      </c>
+      <c r="O43">
+        <v>70.84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="J44">
+        <v>8</v>
+      </c>
+      <c r="K44">
+        <v>1000</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>0.375</v>
+      </c>
+      <c r="N44">
+        <v>22.02</v>
+      </c>
+      <c r="O44">
+        <v>67.98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="J45">
+        <v>9</v>
+      </c>
+      <c r="K45">
+        <v>1001</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="M45">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="N45">
+        <v>24.95</v>
+      </c>
+      <c r="O45">
+        <v>65.05</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="J46">
+        <v>10</v>
+      </c>
+      <c r="K46">
+        <v>1010</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="N46">
+        <v>27.95</v>
+      </c>
+      <c r="O46">
+        <v>62.05</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="J47">
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <v>1011</v>
+      </c>
+      <c r="L47">
+        <v>11</v>
+      </c>
+      <c r="M47">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="N47">
+        <v>31.04</v>
+      </c>
+      <c r="O47">
+        <v>58.96</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="J48">
+        <v>12</v>
+      </c>
+      <c r="K48">
+        <v>1100</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
+      <c r="M48">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="N48">
+        <v>34.229999999999997</v>
+      </c>
+      <c r="O48">
+        <v>55.77</v>
+      </c>
+    </row>
+    <row r="49" spans="10:15">
+      <c r="J49">
+        <v>13</v>
+      </c>
+      <c r="K49">
+        <v>1101</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="N49">
+        <v>37.54</v>
+      </c>
+      <c r="O49">
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="50" spans="10:15">
+      <c r="J50">
+        <v>14</v>
+      </c>
+      <c r="K50">
+        <v>1110</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>0.65600000000000003</v>
+      </c>
+      <c r="N50">
+        <v>41.01</v>
+      </c>
+      <c r="O50">
+        <v>48.99</v>
+      </c>
+    </row>
+    <row r="51" spans="10:15">
+      <c r="J51">
+        <v>15</v>
+      </c>
+      <c r="K51">
+        <v>1111</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="N51">
+        <v>44.68</v>
+      </c>
+      <c r="O51">
+        <v>45.32</v>
+      </c>
+    </row>
+    <row r="52" spans="10:15">
+      <c r="J52">
+        <v>16</v>
+      </c>
+      <c r="K52">
+        <v>10000</v>
+      </c>
+      <c r="L52">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <v>0.75</v>
+      </c>
+      <c r="N52">
+        <v>48.59</v>
+      </c>
+      <c r="O52">
+        <v>41.41</v>
+      </c>
+    </row>
+    <row r="53" spans="10:15">
+      <c r="J53">
+        <v>17</v>
+      </c>
+      <c r="K53">
+        <v>10001</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="M53">
+        <v>0.79700000000000004</v>
+      </c>
+      <c r="N53">
+        <v>52.83</v>
+      </c>
+      <c r="O53">
+        <v>37.17</v>
+      </c>
+    </row>
+    <row r="54" spans="10:15">
+      <c r="J54">
+        <v>18</v>
+      </c>
+      <c r="K54">
+        <v>10010</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+      <c r="M54">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="N54">
+        <v>57.54</v>
+      </c>
+      <c r="O54">
+        <v>32.46</v>
+      </c>
+    </row>
+    <row r="55" spans="10:15">
+      <c r="J55">
+        <v>19</v>
+      </c>
+      <c r="K55">
+        <v>10011</v>
+      </c>
+      <c r="L55">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="N55">
+        <v>62.95</v>
+      </c>
+      <c r="O55">
+        <v>27.05</v>
+      </c>
+    </row>
+    <row r="56" spans="10:15">
+      <c r="J56">
+        <v>20</v>
+      </c>
+      <c r="K56">
+        <v>10100</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="N56">
+        <v>69.64</v>
+      </c>
+      <c r="O56">
+        <v>20.36</v>
+      </c>
+    </row>
+    <row r="57" spans="10:15">
+      <c r="J57">
+        <v>21</v>
+      </c>
+      <c r="K57">
+        <v>10101</v>
+      </c>
+      <c r="L57">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="N57">
+        <v>79.86</v>
+      </c>
+      <c r="O57">
+        <v>10.14</v>
+      </c>
+    </row>
+    <row r="58" spans="10:15">
+      <c r="J58">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <v>10110</v>
+      </c>
+      <c r="L58">
+        <v>22</v>
+      </c>
+      <c r="M58">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="10:15">
+      <c r="J59">
+        <v>23</v>
+      </c>
+      <c r="K59">
+        <v>10111</v>
+      </c>
+      <c r="L59">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>1.0780000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="10:15">
+      <c r="J60">
+        <v>24</v>
+      </c>
+      <c r="K60">
+        <v>11000</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="61" spans="10:15">
+      <c r="J61">
+        <v>25</v>
+      </c>
+      <c r="K61">
+        <v>11001</v>
+      </c>
+      <c r="L61">
+        <v>25</v>
+      </c>
+      <c r="M61">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="10:15">
+      <c r="J62">
+        <v>26</v>
+      </c>
+      <c r="K62">
+        <v>11010</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
+      </c>
+      <c r="M62">
+        <v>1.2190000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="10:15">
+      <c r="J63">
+        <v>27</v>
+      </c>
+      <c r="K63">
+        <v>11011</v>
+      </c>
+      <c r="L63">
+        <v>27</v>
+      </c>
+      <c r="M63">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="64" spans="10:15">
+      <c r="J64">
+        <v>28</v>
+      </c>
+      <c r="K64">
+        <v>11100</v>
+      </c>
+      <c r="L64">
+        <v>28</v>
+      </c>
+      <c r="M64">
+        <v>1.3129999999999999</v>
+      </c>
+      <c r="N64" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15">
+      <c r="J65">
+        <v>29</v>
+      </c>
+      <c r="K65">
+        <v>11101</v>
+      </c>
+      <c r="L65">
+        <v>29</v>
+      </c>
+      <c r="M65">
+        <v>1.359</v>
+      </c>
+      <c r="N65" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="66" spans="10:15">
+      <c r="J66">
+        <v>30</v>
+      </c>
+      <c r="K66">
+        <v>11110</v>
+      </c>
+      <c r="L66">
+        <v>30</v>
+      </c>
+      <c r="M66">
+        <v>1.4059999999999999</v>
+      </c>
+      <c r="N66" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="10:15">
+      <c r="J67">
+        <v>31</v>
+      </c>
+      <c r="K67">
+        <v>11111</v>
+      </c>
+      <c r="L67">
+        <v>31</v>
+      </c>
+      <c r="M67">
+        <v>1.4530000000000001</v>
+      </c>
+      <c r="N67" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="68" spans="10:15">
+      <c r="J68">
+        <v>63</v>
+      </c>
+      <c r="K68">
+        <v>111111</v>
+      </c>
+      <c r="L68">
+        <v>-1</v>
+      </c>
+      <c r="M68">
+        <v>-4.7E-2</v>
+      </c>
+      <c r="N68">
+        <v>-2.69</v>
+      </c>
+      <c r="O68">
+        <v>-87.31</v>
+      </c>
+    </row>
+    <row r="69" spans="10:15">
+      <c r="J69">
+        <v>62</v>
+      </c>
+      <c r="K69">
+        <v>111110</v>
+      </c>
+      <c r="L69">
+        <v>-2</v>
+      </c>
+      <c r="M69">
+        <v>-9.4E-2</v>
+      </c>
+      <c r="N69">
+        <v>-5.38</v>
+      </c>
+      <c r="O69">
+        <v>-84.62</v>
+      </c>
+    </row>
+    <row r="70" spans="10:15">
+      <c r="J70">
+        <v>61</v>
+      </c>
+      <c r="K70">
+        <v>111101</v>
+      </c>
+      <c r="L70">
+        <v>-3</v>
+      </c>
+      <c r="M70">
+        <v>-0.14099999999999999</v>
+      </c>
+      <c r="N70">
+        <v>-8.08</v>
+      </c>
+      <c r="O70">
+        <v>-81.92</v>
+      </c>
+    </row>
+    <row r="71" spans="10:15">
+      <c r="J71">
+        <v>60</v>
+      </c>
+      <c r="K71">
+        <v>111100</v>
+      </c>
+      <c r="L71">
+        <v>-4</v>
+      </c>
+      <c r="M71">
+        <v>-0.188</v>
+      </c>
+      <c r="N71">
+        <v>-10.81</v>
+      </c>
+      <c r="O71">
+        <v>-79.19</v>
+      </c>
+    </row>
+    <row r="72" spans="10:15">
+      <c r="J72">
+        <v>59</v>
+      </c>
+      <c r="K72">
+        <v>111011</v>
+      </c>
+      <c r="L72">
+        <v>-5</v>
+      </c>
+      <c r="M72">
+        <v>-0.23400000000000001</v>
+      </c>
+      <c r="N72">
+        <v>-13.55</v>
+      </c>
+      <c r="O72">
+        <v>-76.45</v>
+      </c>
+    </row>
+    <row r="73" spans="10:15">
+      <c r="J73">
+        <v>58</v>
+      </c>
+      <c r="K73">
+        <v>111010</v>
+      </c>
+      <c r="L73">
+        <v>-6</v>
+      </c>
+      <c r="M73">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="N73">
+        <v>-16.329999999999998</v>
+      </c>
+      <c r="O73">
+        <v>-73.67</v>
+      </c>
+    </row>
+    <row r="74" spans="10:15">
+      <c r="J74">
+        <v>57</v>
+      </c>
+      <c r="K74">
+        <v>111001</v>
+      </c>
+      <c r="L74">
+        <v>-7</v>
+      </c>
+      <c r="M74">
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="N74">
+        <v>-19.16</v>
+      </c>
+      <c r="O74">
+        <v>-70.84</v>
+      </c>
+    </row>
+    <row r="75" spans="10:15">
+      <c r="J75">
+        <v>56</v>
+      </c>
+      <c r="K75">
+        <v>111000</v>
+      </c>
+      <c r="L75">
+        <v>-8</v>
+      </c>
+      <c r="M75">
+        <v>-0.375</v>
+      </c>
+      <c r="N75">
+        <v>-22.02</v>
+      </c>
+      <c r="O75">
+        <v>-67.98</v>
+      </c>
+    </row>
+    <row r="76" spans="10:15">
+      <c r="J76">
+        <v>55</v>
+      </c>
+      <c r="K76">
+        <v>110111</v>
+      </c>
+      <c r="L76">
+        <v>-9</v>
+      </c>
+      <c r="M76">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="N76">
+        <v>-24.95</v>
+      </c>
+      <c r="O76">
+        <v>-65.05</v>
+      </c>
+    </row>
+    <row r="77" spans="10:15">
+      <c r="J77">
+        <v>54</v>
+      </c>
+      <c r="K77">
+        <v>110110</v>
+      </c>
+      <c r="L77">
+        <v>-10</v>
+      </c>
+      <c r="M77">
+        <v>-0.46899999999999997</v>
+      </c>
+      <c r="N77">
+        <v>-27.95</v>
+      </c>
+      <c r="O77">
+        <v>-62.05</v>
+      </c>
+    </row>
+    <row r="78" spans="10:15">
+      <c r="J78">
+        <v>53</v>
+      </c>
+      <c r="K78">
+        <v>110101</v>
+      </c>
+      <c r="L78">
+        <v>-11</v>
+      </c>
+      <c r="M78">
+        <v>-0.51600000000000001</v>
+      </c>
+      <c r="N78">
+        <v>-31.04</v>
+      </c>
+      <c r="O78">
+        <v>-58.96</v>
+      </c>
+    </row>
+    <row r="79" spans="10:15">
+      <c r="J79">
+        <v>52</v>
+      </c>
+      <c r="K79">
+        <v>110100</v>
+      </c>
+      <c r="L79">
+        <v>-12</v>
+      </c>
+      <c r="M79">
+        <v>-0.56299999999999994</v>
+      </c>
+      <c r="N79">
+        <v>-34.229999999999997</v>
+      </c>
+      <c r="O79">
+        <v>-55.77</v>
+      </c>
+    </row>
+    <row r="80" spans="10:15">
+      <c r="J80">
+        <v>51</v>
+      </c>
+      <c r="K80">
+        <v>110011</v>
+      </c>
+      <c r="L80">
+        <v>-13</v>
+      </c>
+      <c r="M80">
+        <v>-0.60899999999999999</v>
+      </c>
+      <c r="N80">
+        <v>-37.54</v>
+      </c>
+      <c r="O80">
+        <v>-52.46</v>
+      </c>
+    </row>
+    <row r="81" spans="10:15">
+      <c r="J81">
+        <v>50</v>
+      </c>
+      <c r="K81">
+        <v>110010</v>
+      </c>
+      <c r="L81">
+        <v>-14</v>
+      </c>
+      <c r="M81">
+        <v>-0.65600000000000003</v>
+      </c>
+      <c r="N81">
+        <v>-41.01</v>
+      </c>
+      <c r="O81">
+        <v>-48.99</v>
+      </c>
+    </row>
+    <row r="82" spans="10:15">
+      <c r="J82">
+        <v>49</v>
+      </c>
+      <c r="K82">
+        <v>110001</v>
+      </c>
+      <c r="L82">
+        <v>-15</v>
+      </c>
+      <c r="M82">
+        <v>-0.70299999999999996</v>
+      </c>
+      <c r="N82">
+        <v>-44.68</v>
+      </c>
+      <c r="O82">
+        <v>-45.32</v>
+      </c>
+    </row>
+    <row r="83" spans="10:15">
+      <c r="J83">
+        <v>48</v>
+      </c>
+      <c r="K83">
+        <v>110000</v>
+      </c>
+      <c r="L83">
+        <v>-16</v>
+      </c>
+      <c r="M83">
+        <v>-0.75</v>
+      </c>
+      <c r="N83">
+        <v>-48.59</v>
+      </c>
+      <c r="O83">
+        <v>-41.41</v>
+      </c>
+    </row>
+    <row r="84" spans="10:15">
+      <c r="J84">
+        <v>47</v>
+      </c>
+      <c r="K84">
+        <v>101111</v>
+      </c>
+      <c r="L84">
+        <v>-17</v>
+      </c>
+      <c r="M84">
+        <v>-0.79700000000000004</v>
+      </c>
+      <c r="N84">
+        <v>-52.83</v>
+      </c>
+      <c r="O84">
+        <v>-37.17</v>
+      </c>
+    </row>
+    <row r="85" spans="10:15">
+      <c r="J85">
+        <v>46</v>
+      </c>
+      <c r="K85">
+        <v>101110</v>
+      </c>
+      <c r="L85">
+        <v>-18</v>
+      </c>
+      <c r="M85">
+        <v>-0.84399999999999997</v>
+      </c>
+      <c r="N85">
+        <v>-57.54</v>
+      </c>
+      <c r="O85">
+        <v>-32.46</v>
+      </c>
+    </row>
+    <row r="86" spans="10:15">
+      <c r="J86">
+        <v>45</v>
+      </c>
+      <c r="K86">
+        <v>101101</v>
+      </c>
+      <c r="L86">
+        <v>-19</v>
+      </c>
+      <c r="M86">
+        <v>-0.89100000000000001</v>
+      </c>
+      <c r="N86">
+        <v>-62.95</v>
+      </c>
+      <c r="O86">
+        <v>-27.05</v>
+      </c>
+    </row>
+    <row r="87" spans="10:15">
+      <c r="J87">
+        <v>44</v>
+      </c>
+      <c r="K87">
+        <v>101100</v>
+      </c>
+      <c r="L87">
+        <v>-20</v>
+      </c>
+      <c r="M87">
+        <v>-0.93799999999999994</v>
+      </c>
+      <c r="N87">
+        <v>-69.64</v>
+      </c>
+      <c r="O87">
+        <v>-20.36</v>
+      </c>
+    </row>
+    <row r="88" spans="10:15">
+      <c r="J88">
+        <v>43</v>
+      </c>
+      <c r="K88">
+        <v>101011</v>
+      </c>
+      <c r="L88">
+        <v>-21</v>
+      </c>
+      <c r="M88">
+        <v>-0.98399999999999999</v>
+      </c>
+      <c r="N88">
+        <v>-79.86</v>
+      </c>
+      <c r="O88">
+        <v>-10.14</v>
+      </c>
+    </row>
+    <row r="89" spans="10:15">
+      <c r="J89">
+        <v>42</v>
+      </c>
+      <c r="K89">
+        <v>101010</v>
+      </c>
+      <c r="L89">
+        <v>-22</v>
+      </c>
+      <c r="M89">
+        <v>-1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="10:15">
+      <c r="J90">
+        <v>41</v>
+      </c>
+      <c r="K90">
+        <v>101001</v>
+      </c>
+      <c r="L90">
+        <v>-23</v>
+      </c>
+      <c r="M90">
+        <v>-1.0780000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="10:15">
+      <c r="J91">
+        <v>40</v>
+      </c>
+      <c r="K91">
+        <v>101000</v>
+      </c>
+      <c r="L91">
+        <v>-24</v>
+      </c>
+      <c r="M91">
+        <v>-1.125</v>
+      </c>
+    </row>
+    <row r="92" spans="10:15">
+      <c r="J92">
+        <v>39</v>
+      </c>
+      <c r="K92">
+        <v>100111</v>
+      </c>
+      <c r="L92">
+        <v>-25</v>
+      </c>
+      <c r="M92">
+        <v>-1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="10:15">
+      <c r="J93">
+        <v>38</v>
+      </c>
+      <c r="K93">
+        <v>100110</v>
+      </c>
+      <c r="L93">
+        <v>-26</v>
+      </c>
+      <c r="M93">
+        <v>-1.2190000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="10:15">
+      <c r="J94">
+        <v>37</v>
+      </c>
+      <c r="K94">
+        <v>100101</v>
+      </c>
+      <c r="L94">
+        <v>-27</v>
+      </c>
+      <c r="M94">
+        <v>-1.266</v>
+      </c>
+    </row>
+    <row r="95" spans="10:15">
+      <c r="J95">
+        <v>36</v>
+      </c>
+      <c r="K95">
+        <v>100100</v>
+      </c>
+      <c r="L95">
+        <v>-28</v>
+      </c>
+      <c r="M95">
+        <v>-1.3129999999999999</v>
+      </c>
+      <c r="N95" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="96" spans="10:15">
+      <c r="J96">
+        <v>35</v>
+      </c>
+      <c r="K96">
+        <v>100011</v>
+      </c>
+      <c r="L96">
+        <v>-29</v>
+      </c>
+      <c r="M96">
+        <v>-1.359</v>
+      </c>
+      <c r="N96" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="10:14">
+      <c r="J97">
+        <v>34</v>
+      </c>
+      <c r="K97">
+        <v>100010</v>
+      </c>
+      <c r="L97">
+        <v>-30</v>
+      </c>
+      <c r="M97">
+        <v>-1.4059999999999999</v>
+      </c>
+      <c r="N97" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="10:14">
+      <c r="J98">
+        <v>33</v>
+      </c>
+      <c r="K98">
+        <v>100001</v>
+      </c>
+      <c r="L98">
+        <v>-31</v>
+      </c>
+      <c r="M98">
+        <v>-1.4530000000000001</v>
+      </c>
+      <c r="N98" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="99" spans="10:14">
+      <c r="J99">
+        <v>32</v>
+      </c>
+      <c r="K99">
+        <v>100000</v>
+      </c>
+      <c r="L99">
+        <v>-32</v>
+      </c>
+      <c r="M99">
+        <v>-1.5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>201</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
@@ -5219,6 +6770,28 @@
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="C30:D30"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -5251,10 +6824,10 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
@@ -5273,12 +6846,12 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -5292,8 +6865,8 @@
       <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -5301,10 +6874,10 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -5318,8 +6891,8 @@
       <c r="B5" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -5331,10 +6904,10 @@
         <v>116</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -5352,10 +6925,10 @@
         <v>117</v>
       </c>
       <c r="B7" s="35"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="24" t="s">
         <v>65</v>
       </c>
@@ -5371,10 +6944,10 @@
         <v>118</v>
       </c>
       <c r="B8" s="35"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="24" t="s">
         <v>65</v>
       </c>
@@ -5390,10 +6963,10 @@
         <v>119</v>
       </c>
       <c r="B9" s="35"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="24" t="s">
         <v>65</v>
       </c>
@@ -5409,10 +6982,10 @@
         <v>120</v>
       </c>
       <c r="B10" s="35"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="24" t="s">
         <v>65</v>
       </c>
@@ -5426,10 +6999,10 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -5443,8 +7016,8 @@
       <c r="B12" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -5456,10 +7029,10 @@
         <v>122</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="24" t="s">
         <v>65</v>
       </c>
@@ -5477,10 +7050,10 @@
         <v>123</v>
       </c>
       <c r="B14" s="35"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="60" t="s">
         <v>142</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="24" t="s">
         <v>65</v>
       </c>
@@ -5496,10 +7069,10 @@
         <v>124</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="24" t="s">
         <v>65</v>
       </c>
@@ -5515,10 +7088,10 @@
         <v>125</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="24" t="s">
         <v>65</v>
       </c>
@@ -5534,10 +7107,10 @@
         <v>126</v>
       </c>
       <c r="B17" s="35"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="24" t="s">
         <v>65</v>
       </c>
@@ -5551,10 +7124,10 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -5568,8 +7141,8 @@
       <c r="B19" s="38" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -5581,10 +7154,10 @@
         <v>128</v>
       </c>
       <c r="B20" s="33"/>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="24" t="s">
         <v>65</v>
       </c>
@@ -5602,10 +7175,10 @@
         <v>129</v>
       </c>
       <c r="B21" s="33"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="24" t="s">
         <v>65</v>
       </c>
@@ -5621,10 +7194,10 @@
         <v>130</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="24" t="s">
         <v>65</v>
       </c>
@@ -5640,10 +7213,10 @@
         <v>131</v>
       </c>
       <c r="B23" s="33"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="24" t="s">
         <v>65</v>
       </c>
@@ -5659,10 +7232,10 @@
         <v>132</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="24" t="s">
         <v>65</v>
       </c>
@@ -5676,10 +7249,10 @@
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="16">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
       <c r="G25" s="29"/>
@@ -5693,8 +7266,8 @@
       <c r="B26" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
       <c r="G26" s="29"/>
@@ -5706,10 +7279,10 @@
         <v>134</v>
       </c>
       <c r="B27" s="33"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="24" t="s">
         <v>65</v>
       </c>
@@ -5727,10 +7300,10 @@
         <v>135</v>
       </c>
       <c r="B28" s="33"/>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="55"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="24" t="s">
         <v>65</v>
       </c>
@@ -5748,10 +7321,10 @@
         <v>136</v>
       </c>
       <c r="B29" s="33"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="24" t="s">
         <v>65</v>
       </c>
@@ -5767,10 +7340,10 @@
       </c>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
+      <c r="A30" s="60"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="25"/>
       <c r="F30" s="25"/>
       <c r="G30" s="25"/>
@@ -5784,8 +7357,8 @@
       <c r="B31" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="25"/>
       <c r="F31" s="25"/>
       <c r="G31" s="25"/>
@@ -5797,10 +7370,10 @@
         <v>138</v>
       </c>
       <c r="B32" s="33"/>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D32" s="55"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="24" t="s">
         <v>65</v>
       </c>
@@ -5816,10 +7389,10 @@
         <v>1805</v>
       </c>
       <c r="B33" s="33"/>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D33" s="55"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="24" t="s">
         <v>65</v>
       </c>
@@ -5833,10 +7406,10 @@
       </c>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="25"/>
       <c r="F34" s="25"/>
       <c r="G34" s="25"/>
@@ -5850,8 +7423,8 @@
       <c r="B35" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
       <c r="E35" s="25"/>
       <c r="F35" s="25"/>
       <c r="G35" s="25"/>
@@ -5863,10 +7436,10 @@
         <v>16</v>
       </c>
       <c r="B36" s="33"/>
-      <c r="C36" s="55" t="s">
+      <c r="C36" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="55"/>
+      <c r="D36" s="60"/>
       <c r="E36" s="24" t="s">
         <v>65</v>
       </c>
@@ -5881,10 +7454,10 @@
         <v>18</v>
       </c>
       <c r="B37" s="33"/>
-      <c r="C37" s="55" t="s">
+      <c r="C37" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D37" s="55"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="24" t="s">
         <v>65</v>
       </c>
@@ -5899,10 +7472,10 @@
         <v>20</v>
       </c>
       <c r="B38" s="33"/>
-      <c r="C38" s="55" t="s">
+      <c r="C38" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D38" s="55"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="24" t="s">
         <v>65</v>
       </c>
@@ -5913,10 +7486,10 @@
       </c>
     </row>
     <row r="39" spans="1:9">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
+      <c r="A39" s="60"/>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
       <c r="E39" s="27"/>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -5930,8 +7503,8 @@
       <c r="B40" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
       <c r="E40" s="27"/>
       <c r="F40" s="25"/>
       <c r="G40" s="25"/>
@@ -5943,10 +7516,10 @@
         <v>24</v>
       </c>
       <c r="B41" s="32"/>
-      <c r="C41" s="55" t="s">
+      <c r="C41" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="55"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="24" t="s">
         <v>65</v>
       </c>
@@ -5961,6 +7534,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="A30:D30"/>
     <mergeCell ref="A25:D25"/>
@@ -5977,31 +7575,6 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6017,7 +7590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
@@ -6035,10 +7608,10 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
@@ -6057,12 +7630,12 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -6076,8 +7649,8 @@
       <c r="B3" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -6085,10 +7658,10 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -6102,8 +7675,8 @@
       <c r="B5" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -6115,10 +7688,10 @@
         <v>150</v>
       </c>
       <c r="B6" s="35"/>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -6136,10 +7709,10 @@
         <v>151</v>
       </c>
       <c r="B7" s="35"/>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="60" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="55"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="24" t="s">
         <v>65</v>
       </c>
@@ -6155,10 +7728,10 @@
         <v>152</v>
       </c>
       <c r="B8" s="35"/>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="55"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="24" t="s">
         <v>65</v>
       </c>
@@ -6174,10 +7747,10 @@
         <v>153</v>
       </c>
       <c r="B9" s="35"/>
-      <c r="C9" s="55" t="s">
+      <c r="C9" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="24" t="s">
         <v>65</v>
       </c>
@@ -6193,10 +7766,10 @@
         <v>154</v>
       </c>
       <c r="B10" s="35"/>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="24" t="s">
         <v>65</v>
       </c>
@@ -6210,10 +7783,10 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
+      <c r="A11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -6227,8 +7800,8 @@
       <c r="B12" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -6240,10 +7813,10 @@
         <v>156</v>
       </c>
       <c r="B13" s="35"/>
-      <c r="C13" s="55" t="s">
+      <c r="C13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="24" t="s">
         <v>65</v>
       </c>
@@ -6261,10 +7834,10 @@
         <v>157</v>
       </c>
       <c r="B14" s="35"/>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="24" t="s">
         <v>65</v>
       </c>
@@ -6280,10 +7853,10 @@
         <v>158</v>
       </c>
       <c r="B15" s="35"/>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="60" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="24" t="s">
         <v>65</v>
       </c>
@@ -6299,10 +7872,10 @@
         <v>159</v>
       </c>
       <c r="B16" s="35"/>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="60" t="s">
         <v>172</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="24" t="s">
         <v>65</v>
       </c>
@@ -6318,10 +7891,10 @@
         <v>160</v>
       </c>
       <c r="B17" s="35"/>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="24" t="s">
         <v>65</v>
       </c>
@@ -6335,10 +7908,10 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="16">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
       <c r="G18" s="29"/>
@@ -6352,8 +7925,8 @@
       <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
       <c r="G19" s="29"/>
@@ -6365,10 +7938,10 @@
         <v>162</v>
       </c>
       <c r="B20" s="33"/>
-      <c r="C20" s="55" t="s">
+      <c r="C20" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="24" t="s">
         <v>65</v>
       </c>
@@ -6386,10 +7959,10 @@
         <v>163</v>
       </c>
       <c r="B21" s="33"/>
-      <c r="C21" s="55" t="s">
+      <c r="C21" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="24" t="s">
         <v>65</v>
       </c>
@@ -6407,10 +7980,10 @@
         <v>164</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="24" t="s">
         <v>65</v>
       </c>
@@ -6426,10 +7999,10 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="60"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
@@ -6443,8 +8016,8 @@
       <c r="B24" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
@@ -6456,10 +8029,10 @@
         <v>166</v>
       </c>
       <c r="B25" s="33"/>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="60" t="s">
         <v>139</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="24" t="s">
         <v>65</v>
       </c>
@@ -6475,10 +8048,10 @@
         <v>1805</v>
       </c>
       <c r="B26" s="33"/>
-      <c r="C26" s="55" t="s">
+      <c r="C26" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="24" t="s">
         <v>65</v>
       </c>
@@ -6492,10 +8065,10 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="25"/>
       <c r="F27" s="25"/>
       <c r="G27" s="25"/>
@@ -6509,8 +8082,8 @@
       <c r="B28" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
@@ -6522,10 +8095,10 @@
         <v>16</v>
       </c>
       <c r="B29" s="33"/>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="55"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="24" t="s">
         <v>65</v>
       </c>
@@ -6540,10 +8113,10 @@
         <v>18</v>
       </c>
       <c r="B30" s="33"/>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="24" t="s">
         <v>65</v>
       </c>
@@ -6558,10 +8131,10 @@
         <v>20</v>
       </c>
       <c r="B31" s="33"/>
-      <c r="C31" s="55" t="s">
+      <c r="C31" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="24" t="s">
         <v>65</v>
       </c>
@@ -6572,10 +8145,10 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
+      <c r="A32" s="60"/>
+      <c r="B32" s="60"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="25"/>
       <c r="G32" s="25"/>
       <c r="H32" s="25"/>
@@ -6588,8 +8161,8 @@
       <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="27"/>
       <c r="F33" s="25"/>
       <c r="G33" s="25"/>
@@ -6601,10 +8174,10 @@
         <v>24</v>
       </c>
       <c r="B34" s="32"/>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D34" s="55"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="24" t="s">
         <v>65</v>
       </c>
@@ -6619,16 +8192,15 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="A11:D11"/>
@@ -6644,15 +8216,16 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -6686,10 +8259,10 @@
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
+      <c r="C1" s="62"/>
       <c r="D1" s="31" t="s">
         <v>2</v>
       </c>
@@ -6708,12 +8281,12 @@
       <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="16" customHeight="1">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="61" t="s">
         <v>173</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
       <c r="G2" s="25"/>
@@ -6727,8 +8300,8 @@
       <c r="B3" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="25"/>
@@ -6736,10 +8309,10 @@
       <c r="I3" s="25"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="57"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="25"/>
@@ -6753,8 +8326,8 @@
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="25"/>
@@ -6766,10 +8339,10 @@
         <v>176</v>
       </c>
       <c r="B6" s="43"/>
-      <c r="C6" s="57" t="s">
+      <c r="C6" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="24" t="s">
         <v>65</v>
       </c>
@@ -6787,10 +8360,10 @@
         <v>177</v>
       </c>
       <c r="B7" s="43"/>
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="63" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="57"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="24" t="s">
         <v>65</v>
       </c>
@@ -6806,10 +8379,10 @@
         <v>178</v>
       </c>
       <c r="B8" s="43"/>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="63" t="s">
         <v>168</v>
       </c>
-      <c r="D8" s="57"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="24" t="s">
         <v>65</v>
       </c>
@@ -6825,10 +8398,10 @@
         <v>179</v>
       </c>
       <c r="B9" s="43"/>
-      <c r="C9" s="57" t="s">
+      <c r="C9" s="63" t="s">
         <v>169</v>
       </c>
-      <c r="D9" s="57"/>
+      <c r="D9" s="63"/>
       <c r="E9" s="24" t="s">
         <v>65</v>
       </c>
@@ -6844,10 +8417,10 @@
         <v>180</v>
       </c>
       <c r="B10" s="43"/>
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="57"/>
+      <c r="D10" s="63"/>
       <c r="E10" s="24" t="s">
         <v>65</v>
       </c>
@@ -6861,10 +8434,10 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="16">
-      <c r="A11" s="57"/>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -6878,8 +8451,8 @@
       <c r="B12" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -6891,10 +8464,10 @@
         <v>182</v>
       </c>
       <c r="B13" s="41"/>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="57"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="24" t="s">
         <v>65</v>
       </c>
@@ -6912,10 +8485,10 @@
         <v>183</v>
       </c>
       <c r="B14" s="41"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="24" t="s">
         <v>65</v>
       </c>
@@ -6933,10 +8506,10 @@
         <v>184</v>
       </c>
       <c r="B15" s="41"/>
-      <c r="C15" s="57" t="s">
+      <c r="C15" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="24" t="s">
         <v>65</v>
       </c>
@@ -6952,10 +8525,10 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -6969,8 +8542,8 @@
       <c r="B17" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -6982,10 +8555,10 @@
         <v>186</v>
       </c>
       <c r="B18" s="41"/>
-      <c r="C18" s="57" t="s">
+      <c r="C18" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="24" t="s">
         <v>65</v>
       </c>
@@ -7001,10 +8574,10 @@
         <v>1805</v>
       </c>
       <c r="B19" s="33"/>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="60" t="s">
         <v>95</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="24" t="s">
         <v>65</v>
       </c>
@@ -7018,10 +8591,10 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
@@ -7035,8 +8608,8 @@
       <c r="B21" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
@@ -7048,10 +8621,10 @@
         <v>16</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="24" t="s">
         <v>65</v>
       </c>
@@ -7066,10 +8639,10 @@
         <v>18</v>
       </c>
       <c r="B23" s="33"/>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="24" t="s">
         <v>65</v>
       </c>
@@ -7084,10 +8657,10 @@
         <v>20</v>
       </c>
       <c r="B24" s="33"/>
-      <c r="C24" s="55" t="s">
+      <c r="C24" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="24" t="s">
         <v>65</v>
       </c>
@@ -7098,10 +8671,10 @@
       </c>
     </row>
     <row r="25" spans="1:9">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
+      <c r="A25" s="60"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="27"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
@@ -7115,8 +8688,8 @@
       <c r="B26" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="27"/>
       <c r="F26" s="25"/>
       <c r="G26" s="25"/>
@@ -7128,10 +8701,10 @@
         <v>24</v>
       </c>
       <c r="B27" s="32"/>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="24" t="s">
         <v>65</v>
       </c>
@@ -7146,16 +8719,12 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="C5:D5"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
@@ -7167,12 +8736,16 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A16:D16"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
